--- a/Project_tracker.xlsx
+++ b/Project_tracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751CFE2E-8DFB-4486-B3DE-0E8318DB1136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F2B970-C1F8-4BAA-8740-DEE43106FA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project tracker" sheetId="1" r:id="rId1"/>
@@ -1526,7 +1526,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1664,11 +1664,11 @@
       </c>
       <c r="I5" s="25">
         <f ca="1">TODAY()-65</f>
-        <v>45535</v>
+        <v>45536</v>
       </c>
       <c r="J5" s="25">
         <f ca="1">TODAY()</f>
-        <v>45600</v>
+        <v>45601</v>
       </c>
       <c r="K5" s="18">
         <v>5</v>
@@ -1706,11 +1706,11 @@
       </c>
       <c r="I6" s="25">
         <f ca="1">TODAY()-41</f>
-        <v>45559</v>
+        <v>45560</v>
       </c>
       <c r="J6" s="25">
         <f ca="1">TODAY()-7</f>
-        <v>45593</v>
+        <v>45594</v>
       </c>
       <c r="K6" s="18">
         <v>6</v>
@@ -1748,11 +1748,11 @@
       </c>
       <c r="I7" s="25">
         <f ca="1">TODAY()-100</f>
-        <v>45500</v>
+        <v>45501</v>
       </c>
       <c r="J7" s="25">
         <f ca="1">TODAY()-27</f>
-        <v>45573</v>
+        <v>45574</v>
       </c>
       <c r="K7" s="18">
         <v>4</v>
@@ -1790,11 +1790,11 @@
       </c>
       <c r="I8" s="25">
         <f ca="1">TODAY()-90</f>
-        <v>45510</v>
+        <v>45511</v>
       </c>
       <c r="J8" s="25">
         <f ca="1">TODAY()-71</f>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="K8" s="18">
         <v>1</v>
@@ -1832,11 +1832,11 @@
       </c>
       <c r="I9" s="25">
         <f ca="1">TODAY()-90</f>
-        <v>45510</v>
+        <v>45511</v>
       </c>
       <c r="J9" s="25">
         <f ca="1">TODAY()-44</f>
-        <v>45556</v>
+        <v>45557</v>
       </c>
       <c r="K9" s="18">
         <v>1</v>
@@ -1876,11 +1876,11 @@
       </c>
       <c r="I10" s="25">
         <f ca="1">TODAY()-60</f>
-        <v>45540</v>
+        <v>45541</v>
       </c>
       <c r="J10" s="25">
         <f ca="1">TODAY()-45</f>
-        <v>45555</v>
+        <v>45556</v>
       </c>
       <c r="K10" s="18">
         <v>6</v>
@@ -1919,11 +1919,11 @@
       </c>
       <c r="I11" s="25">
         <f ca="1">TODAY()-44</f>
-        <v>45556</v>
+        <v>45557</v>
       </c>
       <c r="J11" s="25">
         <f ca="1">TODAY()-15</f>
-        <v>45585</v>
+        <v>45586</v>
       </c>
       <c r="K11" s="18">
         <v>5</v>
@@ -1961,11 +1961,11 @@
       </c>
       <c r="I12" s="25">
         <f ca="1">TODAY()-1</f>
-        <v>45599</v>
+        <v>45600</v>
       </c>
       <c r="J12" s="25">
         <f ca="1">TODAY()+1</f>
-        <v>45601</v>
+        <v>45602</v>
       </c>
       <c r="K12" s="18">
         <v>6</v>
@@ -1998,16 +1998,16 @@
         <v>1</v>
       </c>
       <c r="H13" s="21">
-        <f>IF(COUNTA('Project tracker'!$E14,'Project tracker'!$F14)&lt;&gt;2,"",DAYS360('Project tracker'!$E14,'Project tracker'!$F14,FALSE))</f>
-        <v>17</v>
+        <f>IF(COUNTA('Project tracker'!$E13,'Project tracker'!$F13)&lt;&gt;2,"",DAYS360('Project tracker'!$E13,'Project tracker'!$F13,FALSE))</f>
+        <v>7</v>
       </c>
       <c r="I13" s="25">
         <f ca="1">TODAY()-90</f>
-        <v>45510</v>
+        <v>45511</v>
       </c>
       <c r="J13" s="25">
         <f ca="1">TODAY()-80</f>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="K13" s="18">
         <v>7</v>
@@ -2040,16 +2040,16 @@
         <v>40</v>
       </c>
       <c r="H14" s="21">
-        <f>IF(COUNTA('Project tracker'!$E15,'Project tracker'!$F15)&lt;&gt;2,"",DAYS360('Project tracker'!$E15,'Project tracker'!$F15,FALSE))</f>
-        <v>3</v>
+        <f>IF(COUNTA('Project tracker'!$E14,'Project tracker'!$F14)&lt;&gt;2,"",DAYS360('Project tracker'!$E14,'Project tracker'!$F14,FALSE))</f>
+        <v>17</v>
       </c>
       <c r="I14" s="28">
         <f ca="1">TODAY()-65</f>
-        <v>45535</v>
+        <v>45536</v>
       </c>
       <c r="J14" s="28">
         <f ca="1">TODAY()</f>
-        <v>45600</v>
+        <v>45601</v>
       </c>
       <c r="K14" s="18">
         <v>5</v>
@@ -2081,17 +2081,17 @@
       <c r="G15" s="18">
         <v>9</v>
       </c>
-      <c r="H15" s="21" t="e">
-        <f>IF(COUNTA('Project tracker'!#REF!,'Project tracker'!#REF!)&lt;&gt;2,"",DAYS360('Project tracker'!#REF!,'Project tracker'!#REF!,FALSE))</f>
-        <v>#REF!</v>
+      <c r="H15" s="21">
+        <f>IF(COUNTA('Project tracker'!$E15,'Project tracker'!$F15)&lt;&gt;2,"",DAYS360('Project tracker'!$E15,'Project tracker'!$F15,FALSE))</f>
+        <v>3</v>
       </c>
       <c r="I15" s="28">
         <f ca="1">TODAY()-41</f>
-        <v>45559</v>
+        <v>45560</v>
       </c>
       <c r="J15" s="28">
         <f ca="1">TODAY()-7</f>
-        <v>45593</v>
+        <v>45594</v>
       </c>
       <c r="K15" s="18">
         <v>6</v>
@@ -2111,17 +2111,17 @@
       <c r="G16" s="18">
         <v>5</v>
       </c>
-      <c r="H16" s="21" t="e">
-        <f>IF(COUNTA('Project tracker'!#REF!,'Project tracker'!#REF!)&lt;&gt;2,"",DAYS360('Project tracker'!#REF!,'Project tracker'!#REF!,FALSE))</f>
-        <v>#REF!</v>
+      <c r="H16" s="21" t="str">
+        <f>IF(COUNTA('Project tracker'!$E16,'Project tracker'!$F16)&lt;&gt;2,"",DAYS360('Project tracker'!$E16,'Project tracker'!$F16,FALSE))</f>
+        <v/>
       </c>
       <c r="I16" s="28">
         <f ca="1">TODAY()-100</f>
-        <v>45500</v>
+        <v>45501</v>
       </c>
       <c r="J16" s="28">
         <f ca="1">TODAY()-27</f>
-        <v>45573</v>
+        <v>45574</v>
       </c>
       <c r="K16" s="18">
         <v>4</v>
@@ -2147,11 +2147,11 @@
       </c>
       <c r="I17" s="28">
         <f ca="1">TODAY()-90</f>
-        <v>45510</v>
+        <v>45511</v>
       </c>
       <c r="J17" s="28">
         <f ca="1">TODAY()-71</f>
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="K17" s="18">
         <v>1</v>
@@ -2177,11 +2177,11 @@
       </c>
       <c r="I18" s="28">
         <f ca="1">TODAY()-90</f>
-        <v>45510</v>
+        <v>45511</v>
       </c>
       <c r="J18" s="28">
         <f ca="1">TODAY()-44</f>
-        <v>45556</v>
+        <v>45557</v>
       </c>
       <c r="K18" s="18">
         <v>1</v>
@@ -2207,11 +2207,11 @@
       </c>
       <c r="I19" s="28">
         <f ca="1">TODAY()-60</f>
-        <v>45540</v>
+        <v>45541</v>
       </c>
       <c r="J19" s="28">
         <f ca="1">TODAY()-45</f>
-        <v>45555</v>
+        <v>45556</v>
       </c>
       <c r="K19" s="18">
         <v>6</v>
@@ -2237,11 +2237,11 @@
       </c>
       <c r="I20" s="28">
         <f ca="1">TODAY()-44</f>
-        <v>45556</v>
+        <v>45557</v>
       </c>
       <c r="J20" s="28">
         <f ca="1">TODAY()-15</f>
-        <v>45585</v>
+        <v>45586</v>
       </c>
       <c r="K20" s="18">
         <v>5</v>
@@ -2267,11 +2267,11 @@
       </c>
       <c r="I21" s="28">
         <f ca="1">TODAY()-1</f>
-        <v>45599</v>
+        <v>45600</v>
       </c>
       <c r="J21" s="28">
         <f ca="1">TODAY()+1</f>
-        <v>45601</v>
+        <v>45602</v>
       </c>
       <c r="K21" s="18">
         <v>6</v>
@@ -2297,11 +2297,11 @@
       </c>
       <c r="I22" s="28">
         <f ca="1">TODAY()-90</f>
-        <v>45510</v>
+        <v>45511</v>
       </c>
       <c r="J22" s="28">
         <f ca="1">TODAY()-80</f>
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="K22" s="18">
         <v>7</v>
@@ -2535,23 +2535,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2867,22 +2856,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9066C173-72E5-4455-ACFB-9A7596D30A2B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{648F31BC-5AA3-42BF-80F4-A797E59C4FBD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2909,9 +2905,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{648F31BC-5AA3-42BF-80F4-A797E59C4FBD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9066C173-72E5-4455-ACFB-9A7596D30A2B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Project_tracker.xlsx
+++ b/Project_tracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F2B970-C1F8-4BAA-8740-DEE43106FA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D85E251-0B84-41DD-8B07-EFBFFC30BBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project tracker" sheetId="1" r:id="rId1"/>
@@ -1526,7 +1526,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2535,12 +2535,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2856,29 +2867,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{648F31BC-5AA3-42BF-80F4-A797E59C4FBD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9066C173-72E5-4455-ACFB-9A7596D30A2B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2905,13 +2909,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9066C173-72E5-4455-ACFB-9A7596D30A2B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{648F31BC-5AA3-42BF-80F4-A797E59C4FBD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Project_tracker.xlsx
+++ b/Project_tracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D85E251-0B84-41DD-8B07-EFBFFC30BBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC27D39F-6B00-40A3-B372-9BF39FA48485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project tracker" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>Category</t>
   </si>
@@ -173,6 +173,24 @@
   </si>
   <si>
     <t>Test integration</t>
+  </si>
+  <si>
+    <t>Game Logic (4 people)</t>
+  </si>
+  <si>
+    <t>GUI (4 people)</t>
+  </si>
+  <si>
+    <t>Networking (2 people)</t>
+  </si>
+  <si>
+    <t>Authentication (4 people)</t>
+  </si>
+  <si>
+    <t>Leaderboard (5 people)</t>
+  </si>
+  <si>
+    <t>Integration (4 people)</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1543,7 @@
   </sheetPr>
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -2411,8 +2429,8 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2459,7 +2477,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D5" s="13"/>
     </row>
@@ -2469,7 +2487,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D6" s="13"/>
     </row>
@@ -2479,7 +2497,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D7" s="13"/>
     </row>
@@ -2489,7 +2507,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D8" s="13"/>
     </row>
@@ -2499,7 +2517,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D9" s="13"/>
     </row>
@@ -2509,7 +2527,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D10" s="13"/>
     </row>
@@ -2535,23 +2553,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2867,22 +2874,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9066C173-72E5-4455-ACFB-9A7596D30A2B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{648F31BC-5AA3-42BF-80F4-A797E59C4FBD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2909,9 +2923,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{648F31BC-5AA3-42BF-80F4-A797E59C4FBD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9066C173-72E5-4455-ACFB-9A7596D30A2B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
